--- a/target.xlsx
+++ b/target.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="112">
   <si>
     <r>
       <t>位置</t>
@@ -840,11 +840,29 @@
     <t>0016</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>脱硫1</t>
+  </si>
+  <si>
+    <t>C101吹扫线阀</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/M/d h:mm"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -913,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1007,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1371,31 +1390,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="25.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="3" customWidth="1"/>
-    <col min="22" max="22" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="31" width="9" style="3" customWidth="1"/>
-    <col min="32" max="32" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="9" style="3" customWidth="1"/>
-    <col min="41" max="41" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="254" width="9" style="3" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="6.1640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="6.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="5.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="4.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="5.1640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="4.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="4.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="4.83203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="25.5" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="3" width="7.1640625" collapsed="true"/>
+    <col min="24" max="31" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="3" width="16.1640625" collapsed="true"/>
+    <col min="33" max="40" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
+    <col min="42" max="254" customWidth="true" style="3" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="1" customFormat="1" ht="14">
@@ -1548,18 +1567,20 @@
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -1567,27 +1588,35 @@
       <c r="H2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="14">
-        <v>1</v>
+      <c r="I2" s="14" t="n">
+        <v>1.0</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17">
-        <v>2</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="K2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" s="14" t="n">
         <v>1.4</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>48</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>50</v>
@@ -1595,40 +1624,90 @@
       <c r="T2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="14">
-        <v>50</v>
+      <c r="U2" s="14" t="n">
+        <v>50.0</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="18">
-        <v>13</v>
-      </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
+      <c r="W2" s="18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="25" t="n">
+        <v>42549.42361111111</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV2" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1" ht="14">
       <c r="A3" s="7" t="s">

--- a/target.xlsx
+++ b/target.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="20320" windowHeight="12140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AV$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AW$52</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="113">
   <si>
     <r>
       <t>位置</t>
@@ -855,14 +855,15 @@
   <si>
     <t>C101吹扫线阀</t>
   </si>
+  <si>
+    <t>描述人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/M/d h:mm"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1007,7 +1008,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1381,43 +1382,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT52"/>
+  <dimension ref="A1:IU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="3" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="6.1640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="7.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="6.1640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="5.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="4.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="5.1640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" style="3" width="9.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="4.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="4.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="4.83203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="25.5" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="9.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="9.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="3" width="7.1640625" collapsed="true"/>
-    <col min="24" max="31" customWidth="true" style="3" width="9.0" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="3" width="16.1640625" collapsed="true"/>
-    <col min="33" max="40" customWidth="true" style="3" width="9.0" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
-    <col min="42" max="254" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="1" max="2" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="4.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="4.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="4.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="28" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.33203125" style="3" customWidth="1"/>
+    <col min="31" max="32" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="41" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="255" width="9" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" ht="14">
+    <row r="1" spans="1:49" s="1" customFormat="1" ht="14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1506,64 +1510,67 @@
         <v>24</v>
       </c>
       <c r="AD1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AS1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="2" spans="1:49" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -1588,8 +1595,8 @@
       <c r="H2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="14" t="n">
-        <v>1.0</v>
+      <c r="I2" s="14">
+        <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>48</v>
@@ -1606,10 +1613,10 @@
       <c r="N2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P2" s="14" t="n">
+      <c r="O2" s="17">
+        <v>2</v>
+      </c>
+      <c r="P2" s="14">
         <v>1.4</v>
       </c>
       <c r="Q2" s="7" t="s">
@@ -1624,14 +1631,14 @@
       <c r="T2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="14" t="n">
-        <v>50.0</v>
+      <c r="U2" s="14">
+        <v>50</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="18" t="n">
-        <v>13.0</v>
+      <c r="W2" s="18">
+        <v>13</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>107</v>
@@ -1648,16 +1655,14 @@
       <c r="AB2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="25" t="n">
-        <v>42549.42361111111</v>
-      </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AC2" s="25">
+        <v>42549.423611111109</v>
+      </c>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="16" t="s">
         <v>107</v>
       </c>
       <c r="AG2" s="15" t="s">
@@ -1678,16 +1683,16 @@
       <c r="AL2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AP2" s="16" t="s">
         <v>107</v>
       </c>
       <c r="AQ2" s="21" t="s">
@@ -1699,7 +1704,7 @@
       <c r="AS2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AT2" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AU2" s="14" t="s">
@@ -1708,8 +1713,11 @@
       <c r="AV2" s="14" t="s">
         <v>107</v>
       </c>
+      <c r="AW2" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="3" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1775,27 +1783,28 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
       <c r="AC3" s="22"/>
-      <c r="AD3" s="16"/>
+      <c r="AD3" s="22"/>
       <c r="AE3" s="16"/>
-      <c r="AF3" s="15"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="21"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="16"/>
       <c r="AQ3" s="21"/>
       <c r="AR3" s="21"/>
       <c r="AS3" s="21"/>
-      <c r="AT3" s="14"/>
+      <c r="AT3" s="21"/>
       <c r="AU3" s="14"/>
       <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
     </row>
-    <row r="4" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="4" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -1861,27 +1870,28 @@
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="22"/>
-      <c r="AD4" s="16"/>
+      <c r="AD4" s="22"/>
       <c r="AE4" s="16"/>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="15"/>
       <c r="AL4" s="15"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="21"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="16"/>
       <c r="AQ4" s="21"/>
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
-      <c r="AT4" s="14"/>
+      <c r="AT4" s="21"/>
       <c r="AU4" s="14"/>
       <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
     </row>
-    <row r="5" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="5" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -1947,29 +1957,30 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="16" t="s">
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="15"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="21"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="16"/>
       <c r="AQ5" s="21"/>
       <c r="AR5" s="21"/>
       <c r="AS5" s="21"/>
-      <c r="AT5" s="14"/>
+      <c r="AT5" s="21"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
     </row>
-    <row r="6" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="6" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
@@ -2035,29 +2046,30 @@
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="22"/>
-      <c r="AD6" s="16" t="s">
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="15"/>
+      <c r="AF6" s="16"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="21"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="16"/>
       <c r="AQ6" s="21"/>
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
-      <c r="AT6" s="14"/>
+      <c r="AT6" s="21"/>
       <c r="AU6" s="14"/>
       <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
     </row>
-    <row r="7" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="7" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -2123,29 +2135,30 @@
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="22"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="21"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="16"/>
       <c r="AQ7" s="21"/>
       <c r="AR7" s="21"/>
       <c r="AS7" s="21"/>
-      <c r="AT7" s="14"/>
+      <c r="AT7" s="21"/>
       <c r="AU7" s="14"/>
       <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
     </row>
-    <row r="8" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="8" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2224,30 @@
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="16" t="s">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="21"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="16"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="21"/>
       <c r="AS8" s="21"/>
-      <c r="AT8" s="14"/>
+      <c r="AT8" s="21"/>
       <c r="AU8" s="14"/>
       <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
     </row>
-    <row r="9" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="9" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -2299,9 +2313,9 @@
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="22"/>
-      <c r="AD9" s="16"/>
+      <c r="AD9" s="22"/>
       <c r="AE9" s="16"/>
-      <c r="AF9" s="15"/>
+      <c r="AF9" s="16"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -2309,17 +2323,18 @@
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
       <c r="AM9" s="15"/>
-      <c r="AN9" s="16"/>
+      <c r="AN9" s="15"/>
       <c r="AO9" s="16"/>
-      <c r="AP9" s="21"/>
+      <c r="AP9" s="16"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="21"/>
       <c r="AS9" s="21"/>
-      <c r="AT9" s="14"/>
+      <c r="AT9" s="21"/>
       <c r="AU9" s="14"/>
       <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
     </row>
-    <row r="10" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="10" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -2385,9 +2400,9 @@
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="22"/>
-      <c r="AD10" s="16"/>
+      <c r="AD10" s="22"/>
       <c r="AE10" s="16"/>
-      <c r="AF10" s="15"/>
+      <c r="AF10" s="16"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
       <c r="AI10" s="15"/>
@@ -2395,17 +2410,18 @@
       <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
       <c r="AM10" s="15"/>
-      <c r="AN10" s="16"/>
+      <c r="AN10" s="15"/>
       <c r="AO10" s="16"/>
-      <c r="AP10" s="21"/>
+      <c r="AP10" s="16"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="21"/>
       <c r="AS10" s="21"/>
-      <c r="AT10" s="14"/>
+      <c r="AT10" s="21"/>
       <c r="AU10" s="14"/>
       <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
     </row>
-    <row r="11" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="11" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
@@ -2471,9 +2487,9 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="16"/>
+      <c r="AD11" s="22"/>
       <c r="AE11" s="16"/>
-      <c r="AF11" s="15"/>
+      <c r="AF11" s="16"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
@@ -2481,17 +2497,18 @@
       <c r="AK11" s="15"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="15"/>
-      <c r="AN11" s="16"/>
+      <c r="AN11" s="15"/>
       <c r="AO11" s="16"/>
-      <c r="AP11" s="21"/>
+      <c r="AP11" s="16"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="21"/>
       <c r="AS11" s="21"/>
-      <c r="AT11" s="14"/>
+      <c r="AT11" s="21"/>
       <c r="AU11" s="14"/>
       <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
     </row>
-    <row r="12" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="12" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
@@ -2557,9 +2574,9 @@
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="22"/>
-      <c r="AD12" s="16"/>
+      <c r="AD12" s="22"/>
       <c r="AE12" s="16"/>
-      <c r="AF12" s="15"/>
+      <c r="AF12" s="16"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
@@ -2567,19 +2584,20 @@
       <c r="AK12" s="15"/>
       <c r="AL12" s="15"/>
       <c r="AM12" s="15"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16" t="s">
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="21"/>
       <c r="AS12" s="21"/>
-      <c r="AT12" s="14"/>
+      <c r="AT12" s="21"/>
       <c r="AU12" s="14"/>
       <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
     </row>
-    <row r="13" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="13" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -2645,9 +2663,9 @@
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="22"/>
-      <c r="AD13" s="16"/>
+      <c r="AD13" s="22"/>
       <c r="AE13" s="16"/>
-      <c r="AF13" s="15"/>
+      <c r="AF13" s="16"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
@@ -2655,19 +2673,20 @@
       <c r="AK13" s="15"/>
       <c r="AL13" s="15"/>
       <c r="AM13" s="15"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16" t="s">
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP13" s="21"/>
       <c r="AQ13" s="21"/>
       <c r="AR13" s="21"/>
       <c r="AS13" s="21"/>
-      <c r="AT13" s="14"/>
+      <c r="AT13" s="21"/>
       <c r="AU13" s="14"/>
       <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
     </row>
-    <row r="14" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="14" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -2733,9 +2752,9 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="22"/>
-      <c r="AD14" s="16"/>
+      <c r="AD14" s="22"/>
       <c r="AE14" s="16"/>
-      <c r="AF14" s="15"/>
+      <c r="AF14" s="16"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
@@ -2743,19 +2762,20 @@
       <c r="AK14" s="15"/>
       <c r="AL14" s="15"/>
       <c r="AM14" s="15"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16" t="s">
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP14" s="21"/>
       <c r="AQ14" s="21"/>
       <c r="AR14" s="21"/>
       <c r="AS14" s="21"/>
-      <c r="AT14" s="14"/>
+      <c r="AT14" s="21"/>
       <c r="AU14" s="14"/>
       <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
     </row>
-    <row r="15" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="15" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -2821,9 +2841,9 @@
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="22"/>
-      <c r="AD15" s="16"/>
+      <c r="AD15" s="22"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="15"/>
+      <c r="AF15" s="16"/>
       <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
@@ -2831,17 +2851,18 @@
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
       <c r="AM15" s="15"/>
-      <c r="AN15" s="16"/>
+      <c r="AN15" s="15"/>
       <c r="AO15" s="16"/>
-      <c r="AP15" s="21"/>
+      <c r="AP15" s="16"/>
       <c r="AQ15" s="21"/>
       <c r="AR15" s="21"/>
       <c r="AS15" s="21"/>
-      <c r="AT15" s="14"/>
+      <c r="AT15" s="21"/>
       <c r="AU15" s="14"/>
       <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
     </row>
-    <row r="16" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="16" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -2907,9 +2928,9 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="22"/>
-      <c r="AD16" s="16"/>
+      <c r="AD16" s="22"/>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="15"/>
+      <c r="AF16" s="16"/>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
@@ -2917,17 +2938,18 @@
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
-      <c r="AN16" s="16"/>
+      <c r="AN16" s="15"/>
       <c r="AO16" s="16"/>
-      <c r="AP16" s="21"/>
+      <c r="AP16" s="16"/>
       <c r="AQ16" s="21"/>
       <c r="AR16" s="21"/>
       <c r="AS16" s="21"/>
-      <c r="AT16" s="14"/>
+      <c r="AT16" s="21"/>
       <c r="AU16" s="14"/>
       <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="17" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
@@ -2993,9 +3015,9 @@
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="22"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="15"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="16"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
@@ -3003,19 +3025,20 @@
       <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16" t="s">
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP17" s="21"/>
       <c r="AQ17" s="21"/>
       <c r="AR17" s="21"/>
       <c r="AS17" s="21"/>
-      <c r="AT17" s="14"/>
+      <c r="AT17" s="21"/>
       <c r="AU17" s="14"/>
       <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="18" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -3081,9 +3104,9 @@
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="22"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="15"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="16"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
@@ -3091,19 +3114,20 @@
       <c r="AK18" s="15"/>
       <c r="AL18" s="15"/>
       <c r="AM18" s="15"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16" t="s">
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP18" s="21"/>
       <c r="AQ18" s="21"/>
       <c r="AR18" s="21"/>
       <c r="AS18" s="21"/>
-      <c r="AT18" s="14"/>
+      <c r="AT18" s="21"/>
       <c r="AU18" s="14"/>
       <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
     </row>
-    <row r="19" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="19" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -3169,9 +3193,9 @@
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="22"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="15"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="16"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
@@ -3179,19 +3203,20 @@
       <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="16" t="s">
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP19" s="21"/>
       <c r="AQ19" s="21"/>
       <c r="AR19" s="21"/>
       <c r="AS19" s="21"/>
-      <c r="AT19" s="14"/>
+      <c r="AT19" s="21"/>
       <c r="AU19" s="14"/>
       <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
     </row>
-    <row r="20" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="20" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -3257,9 +3282,9 @@
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="22"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="15"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="16"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
@@ -3268,18 +3293,19 @@
       <c r="AL20" s="15"/>
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
-      <c r="AO20" s="16" t="s">
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP20" s="21"/>
       <c r="AQ20" s="21"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
-      <c r="AT20" s="14"/>
+      <c r="AT20" s="21"/>
       <c r="AU20" s="14"/>
       <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
     </row>
-    <row r="21" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="21" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -3345,9 +3371,9 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="22"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="15"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="16"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
@@ -3356,18 +3382,19 @@
       <c r="AL21" s="15"/>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
-      <c r="AO21" s="16" t="s">
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP21" s="21"/>
       <c r="AQ21" s="21"/>
       <c r="AR21" s="21"/>
       <c r="AS21" s="21"/>
-      <c r="AT21" s="14"/>
+      <c r="AT21" s="21"/>
       <c r="AU21" s="14"/>
       <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
     </row>
-    <row r="22" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="22" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -3433,9 +3460,9 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="22"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="15"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="16"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
@@ -3444,18 +3471,19 @@
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
-      <c r="AO22" s="16" t="s">
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP22" s="21"/>
       <c r="AQ22" s="21"/>
       <c r="AR22" s="21"/>
       <c r="AS22" s="21"/>
-      <c r="AT22" s="14"/>
+      <c r="AT22" s="21"/>
       <c r="AU22" s="14"/>
       <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
     </row>
-    <row r="23" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="23" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -3521,9 +3549,9 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="22"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="15"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="16"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15"/>
@@ -3532,18 +3560,19 @@
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
-      <c r="AO23" s="16" t="s">
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP23" s="21"/>
       <c r="AQ23" s="21"/>
       <c r="AR23" s="21"/>
       <c r="AS23" s="21"/>
-      <c r="AT23" s="14"/>
+      <c r="AT23" s="21"/>
       <c r="AU23" s="14"/>
       <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
     </row>
-    <row r="24" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="24" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
@@ -3609,9 +3638,9 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="22"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="15"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="16"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
@@ -3620,18 +3649,19 @@
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
-      <c r="AO24" s="16" t="s">
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP24" s="21"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
-      <c r="AT24" s="14"/>
+      <c r="AT24" s="21"/>
       <c r="AU24" s="14"/>
       <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
     </row>
-    <row r="25" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="25" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -3697,9 +3727,9 @@
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="15"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="16"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
@@ -3708,18 +3738,19 @@
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
-      <c r="AO25" s="16" t="s">
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP25" s="21"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
-      <c r="AT25" s="14"/>
+      <c r="AT25" s="21"/>
       <c r="AU25" s="14"/>
       <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
     </row>
-    <row r="26" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="26" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -3785,9 +3816,9 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="15"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="16"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
@@ -3796,18 +3827,19 @@
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
-      <c r="AO26" s="16" t="s">
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP26" s="21"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
-      <c r="AT26" s="14"/>
+      <c r="AT26" s="21"/>
       <c r="AU26" s="14"/>
       <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
     </row>
-    <row r="27" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="27" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
@@ -3873,9 +3905,9 @@
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="22"/>
-      <c r="AD27" s="16"/>
+      <c r="AD27" s="22"/>
       <c r="AE27" s="16"/>
-      <c r="AF27" s="15"/>
+      <c r="AF27" s="16"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
       <c r="AI27" s="15"/>
@@ -3884,18 +3916,19 @@
       <c r="AL27" s="15"/>
       <c r="AM27" s="15"/>
       <c r="AN27" s="15"/>
-      <c r="AO27" s="16" t="s">
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP27" s="21"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
-      <c r="AT27" s="14"/>
+      <c r="AT27" s="21"/>
       <c r="AU27" s="14"/>
       <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
     </row>
-    <row r="28" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="28" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
@@ -3961,9 +3994,9 @@
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="22"/>
-      <c r="AD28" s="16"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="16"/>
-      <c r="AF28" s="15"/>
+      <c r="AF28" s="16"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
@@ -3972,18 +4005,19 @@
       <c r="AL28" s="15"/>
       <c r="AM28" s="15"/>
       <c r="AN28" s="15"/>
-      <c r="AO28" s="16" t="s">
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP28" s="21"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
-      <c r="AT28" s="14"/>
+      <c r="AT28" s="21"/>
       <c r="AU28" s="14"/>
       <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
     </row>
-    <row r="29" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="29" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -4049,9 +4083,9 @@
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="22"/>
-      <c r="AD29" s="16"/>
+      <c r="AD29" s="22"/>
       <c r="AE29" s="16"/>
-      <c r="AF29" s="15"/>
+      <c r="AF29" s="16"/>
       <c r="AG29" s="15"/>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -4060,18 +4094,19 @@
       <c r="AL29" s="15"/>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
-      <c r="AO29" s="16" t="s">
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP29" s="21"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
-      <c r="AT29" s="14"/>
+      <c r="AT29" s="21"/>
       <c r="AU29" s="14"/>
       <c r="AV29" s="14"/>
+      <c r="AW29" s="14"/>
     </row>
-    <row r="30" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="30" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A30" s="7" t="s">
         <v>44</v>
       </c>
@@ -4137,9 +4172,9 @@
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="22"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="15"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="16"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
@@ -4148,18 +4183,19 @@
       <c r="AL30" s="15"/>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
-      <c r="AO30" s="16" t="s">
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP30" s="21"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
-      <c r="AT30" s="14"/>
+      <c r="AT30" s="21"/>
       <c r="AU30" s="14"/>
       <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
     </row>
-    <row r="31" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="31" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
@@ -4221,28 +4257,29 @@
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="23"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="14"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="15"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
       <c r="AM31" s="14"/>
-      <c r="AO31" s="16" t="s">
+      <c r="AN31" s="14"/>
+      <c r="AP31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP31" s="21"/>
       <c r="AQ31" s="21"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
-      <c r="AT31" s="14"/>
+      <c r="AT31" s="21"/>
       <c r="AU31" s="14"/>
       <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
     </row>
-    <row r="32" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="32" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -4304,28 +4341,29 @@
       <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="23"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="14"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="15"/>
       <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
       <c r="AM32" s="14"/>
-      <c r="AO32" s="16" t="s">
+      <c r="AN32" s="14"/>
+      <c r="AP32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP32" s="21"/>
       <c r="AQ32" s="21"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
-      <c r="AT32" s="14"/>
+      <c r="AT32" s="21"/>
       <c r="AU32" s="14"/>
       <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
     </row>
-    <row r="33" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="33" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
@@ -4387,28 +4425,29 @@
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="23"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="14"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="15"/>
       <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
       <c r="AM33" s="14"/>
-      <c r="AO33" s="16" t="s">
+      <c r="AN33" s="14"/>
+      <c r="AP33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP33" s="21"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
-      <c r="AT33" s="14"/>
+      <c r="AT33" s="21"/>
       <c r="AU33" s="14"/>
       <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
     </row>
-    <row r="34" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="34" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -4470,28 +4509,29 @@
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="23"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="14"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="15"/>
       <c r="AH34" s="14"/>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="14"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
       <c r="AM34" s="14"/>
-      <c r="AO34" s="16" t="s">
+      <c r="AN34" s="14"/>
+      <c r="AP34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP34" s="21"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
-      <c r="AT34" s="14"/>
+      <c r="AT34" s="21"/>
       <c r="AU34" s="14"/>
       <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
     </row>
-    <row r="35" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="35" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4553,28 +4593,29 @@
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="23"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="14"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="15"/>
       <c r="AH35" s="14"/>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="14"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
       <c r="AM35" s="14"/>
-      <c r="AO35" s="16" t="s">
+      <c r="AN35" s="14"/>
+      <c r="AP35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP35" s="21"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
-      <c r="AT35" s="14"/>
+      <c r="AT35" s="21"/>
       <c r="AU35" s="14"/>
       <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
     </row>
-    <row r="36" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="36" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
@@ -4636,28 +4677,29 @@
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="23"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="14"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="15"/>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
       <c r="AM36" s="14"/>
-      <c r="AO36" s="16" t="s">
+      <c r="AN36" s="14"/>
+      <c r="AP36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP36" s="21"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
-      <c r="AT36" s="14"/>
+      <c r="AT36" s="21"/>
       <c r="AU36" s="14"/>
       <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
     </row>
-    <row r="37" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="37" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
@@ -4719,28 +4761,29 @@
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="23"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="14"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="15"/>
       <c r="AH37" s="14"/>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="14"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
       <c r="AM37" s="14"/>
-      <c r="AO37" s="16" t="s">
+      <c r="AN37" s="14"/>
+      <c r="AP37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP37" s="21"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
-      <c r="AT37" s="14"/>
+      <c r="AT37" s="21"/>
       <c r="AU37" s="14"/>
       <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
     </row>
-    <row r="38" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="38" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4802,32 +4845,33 @@
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
       <c r="AC38" s="23"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="16" t="s">
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="15" t="s">
+      <c r="AG38" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
       <c r="AI38" s="14"/>
       <c r="AJ38" s="14"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
       <c r="AM38" s="14"/>
-      <c r="AO38" s="16" t="s">
+      <c r="AN38" s="14"/>
+      <c r="AP38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP38" s="21"/>
       <c r="AQ38" s="21"/>
       <c r="AR38" s="21"/>
       <c r="AS38" s="21"/>
-      <c r="AT38" s="14"/>
+      <c r="AT38" s="21"/>
       <c r="AU38" s="14"/>
       <c r="AV38" s="14"/>
+      <c r="AW38" s="14"/>
     </row>
-    <row r="39" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="39" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
@@ -4889,32 +4933,33 @@
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
       <c r="AC39" s="23"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="16" t="s">
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF39" s="15" t="s">
+      <c r="AG39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG39" s="14"/>
       <c r="AH39" s="14"/>
       <c r="AI39" s="14"/>
       <c r="AJ39" s="14"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
       <c r="AM39" s="14"/>
-      <c r="AO39" s="16" t="s">
+      <c r="AN39" s="14"/>
+      <c r="AP39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP39" s="21"/>
       <c r="AQ39" s="21"/>
       <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
-      <c r="AT39" s="14"/>
+      <c r="AT39" s="21"/>
       <c r="AU39" s="14"/>
       <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
     </row>
-    <row r="40" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="40" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -4976,32 +5021,33 @@
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
       <c r="AC40" s="23"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="16" t="s">
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF40" s="15" t="s">
+      <c r="AG40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="14"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
       <c r="AM40" s="14"/>
-      <c r="AO40" s="16" t="s">
+      <c r="AN40" s="14"/>
+      <c r="AP40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP40" s="21"/>
       <c r="AQ40" s="21"/>
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
-      <c r="AT40" s="14"/>
+      <c r="AT40" s="21"/>
       <c r="AU40" s="14"/>
       <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
     </row>
-    <row r="41" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="41" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
@@ -5063,32 +5109,33 @@
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
       <c r="AC41" s="23"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="16" t="s">
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF41" s="15" t="s">
+      <c r="AG41" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG41" s="14"/>
       <c r="AH41" s="14"/>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="14"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
       <c r="AM41" s="14"/>
-      <c r="AO41" s="16" t="s">
+      <c r="AN41" s="14"/>
+      <c r="AP41" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP41" s="21"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
-      <c r="AT41" s="14"/>
+      <c r="AT41" s="21"/>
       <c r="AU41" s="14"/>
       <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
     </row>
-    <row r="42" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="42" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
@@ -5150,32 +5197,33 @@
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
       <c r="AC42" s="23"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="16" t="s">
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF42" s="15" t="s">
+      <c r="AG42" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG42" s="14"/>
       <c r="AH42" s="14"/>
       <c r="AI42" s="14"/>
       <c r="AJ42" s="14"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
       <c r="AM42" s="14"/>
-      <c r="AO42" s="16" t="s">
+      <c r="AN42" s="14"/>
+      <c r="AP42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP42" s="21"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
-      <c r="AT42" s="14"/>
+      <c r="AT42" s="21"/>
       <c r="AU42" s="14"/>
       <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
     </row>
-    <row r="43" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="43" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -5237,32 +5285,33 @@
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
       <c r="AC43" s="23"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="16" t="s">
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF43" s="15" t="s">
+      <c r="AG43" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG43" s="14"/>
       <c r="AH43" s="14"/>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="14"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="14"/>
       <c r="AM43" s="14"/>
-      <c r="AO43" s="16" t="s">
+      <c r="AN43" s="14"/>
+      <c r="AP43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP43" s="21"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
-      <c r="AT43" s="14"/>
+      <c r="AT43" s="21"/>
       <c r="AU43" s="14"/>
       <c r="AV43" s="14"/>
+      <c r="AW43" s="14"/>
     </row>
-    <row r="44" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="44" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
@@ -5324,32 +5373,33 @@
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="23"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="16" t="s">
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="15" t="s">
+      <c r="AG44" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG44" s="14"/>
       <c r="AH44" s="14"/>
       <c r="AI44" s="14"/>
       <c r="AJ44" s="14"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="14"/>
       <c r="AM44" s="14"/>
-      <c r="AO44" s="16" t="s">
+      <c r="AN44" s="14"/>
+      <c r="AP44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP44" s="21"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
-      <c r="AT44" s="14"/>
+      <c r="AT44" s="21"/>
       <c r="AU44" s="14"/>
       <c r="AV44" s="14"/>
+      <c r="AW44" s="14"/>
     </row>
-    <row r="45" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="45" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
@@ -5411,32 +5461,33 @@
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
       <c r="AC45" s="23"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="16" t="s">
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="15" t="s">
+      <c r="AG45" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AG45" s="14"/>
       <c r="AH45" s="14"/>
       <c r="AI45" s="14"/>
       <c r="AJ45" s="14"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="14"/>
       <c r="AM45" s="14"/>
-      <c r="AO45" s="16" t="s">
+      <c r="AN45" s="14"/>
+      <c r="AP45" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP45" s="21"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
-      <c r="AT45" s="14"/>
+      <c r="AT45" s="21"/>
       <c r="AU45" s="14"/>
       <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
     </row>
-    <row r="46" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="46" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
@@ -5498,28 +5549,29 @@
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
       <c r="AC46" s="23"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="14"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="15"/>
       <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="14"/>
       <c r="AM46" s="14"/>
-      <c r="AO46" s="16" t="s">
+      <c r="AN46" s="14"/>
+      <c r="AP46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP46" s="21"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
-      <c r="AT46" s="14"/>
+      <c r="AT46" s="21"/>
       <c r="AU46" s="14"/>
       <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
     </row>
-    <row r="47" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="47" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A47" s="7" t="s">
         <v>44</v>
       </c>
@@ -5581,28 +5633,29 @@
       <c r="AA47" s="14"/>
       <c r="AB47" s="14"/>
       <c r="AC47" s="23"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="16"/>
-      <c r="AF47" s="15"/>
-      <c r="AG47" s="14"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="15"/>
       <c r="AH47" s="14"/>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="14"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="14"/>
       <c r="AM47" s="14"/>
-      <c r="AO47" s="16" t="s">
+      <c r="AN47" s="14"/>
+      <c r="AP47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP47" s="21"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
-      <c r="AT47" s="14"/>
+      <c r="AT47" s="21"/>
       <c r="AU47" s="14"/>
       <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
     </row>
-    <row r="48" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="48" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -5664,28 +5717,29 @@
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
       <c r="AC48" s="23"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="15"/>
-      <c r="AG48" s="14"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="15"/>
       <c r="AH48" s="14"/>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="14"/>
       <c r="AM48" s="14"/>
-      <c r="AO48" s="16" t="s">
+      <c r="AN48" s="14"/>
+      <c r="AP48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP48" s="21"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
-      <c r="AT48" s="14"/>
+      <c r="AT48" s="21"/>
       <c r="AU48" s="14"/>
       <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
     </row>
-    <row r="49" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="49" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A49" s="7" t="s">
         <v>44</v>
       </c>
@@ -5747,28 +5801,29 @@
       <c r="AA49" s="14"/>
       <c r="AB49" s="14"/>
       <c r="AC49" s="23"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="16"/>
-      <c r="AF49" s="15"/>
-      <c r="AG49" s="14"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="15"/>
       <c r="AH49" s="14"/>
       <c r="AI49" s="14"/>
       <c r="AJ49" s="14"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="14"/>
       <c r="AM49" s="14"/>
-      <c r="AO49" s="16" t="s">
+      <c r="AN49" s="14"/>
+      <c r="AP49" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP49" s="21"/>
       <c r="AQ49" s="21"/>
       <c r="AR49" s="21"/>
       <c r="AS49" s="21"/>
-      <c r="AT49" s="14"/>
+      <c r="AT49" s="21"/>
       <c r="AU49" s="14"/>
       <c r="AV49" s="14"/>
+      <c r="AW49" s="14"/>
     </row>
-    <row r="50" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="50" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A50" s="7" t="s">
         <v>44</v>
       </c>
@@ -5830,28 +5885,29 @@
       <c r="AA50" s="14"/>
       <c r="AB50" s="14"/>
       <c r="AC50" s="23"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="16"/>
-      <c r="AF50" s="15"/>
-      <c r="AG50" s="14"/>
+      <c r="AD50" s="23"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="15"/>
       <c r="AH50" s="14"/>
       <c r="AI50" s="14"/>
       <c r="AJ50" s="14"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="14"/>
       <c r="AM50" s="14"/>
-      <c r="AO50" s="16" t="s">
+      <c r="AN50" s="14"/>
+      <c r="AP50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP50" s="21"/>
       <c r="AQ50" s="21"/>
       <c r="AR50" s="21"/>
       <c r="AS50" s="21"/>
-      <c r="AT50" s="14"/>
+      <c r="AT50" s="21"/>
       <c r="AU50" s="14"/>
       <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
     </row>
-    <row r="51" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="51" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A51" s="7" t="s">
         <v>44</v>
       </c>
@@ -5913,28 +5969,29 @@
       <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
       <c r="AC51" s="23"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="16"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="14"/>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="15"/>
       <c r="AH51" s="14"/>
       <c r="AI51" s="14"/>
       <c r="AJ51" s="14"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="14"/>
       <c r="AM51" s="14"/>
-      <c r="AO51" s="16" t="s">
+      <c r="AN51" s="14"/>
+      <c r="AP51" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP51" s="21"/>
       <c r="AQ51" s="21"/>
       <c r="AR51" s="21"/>
       <c r="AS51" s="21"/>
-      <c r="AT51" s="14"/>
+      <c r="AT51" s="21"/>
       <c r="AU51" s="14"/>
       <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
     </row>
-    <row r="52" spans="1:48" s="2" customFormat="1" ht="14">
+    <row r="52" spans="1:49" s="2" customFormat="1" ht="14">
       <c r="A52" s="7" t="s">
         <v>44</v>
       </c>
@@ -5996,26 +6053,27 @@
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="23"/>
-      <c r="AD52" s="14"/>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="14"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="15"/>
       <c r="AH52" s="14"/>
       <c r="AI52" s="14"/>
       <c r="AJ52" s="14"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="14"/>
       <c r="AM52" s="14"/>
-      <c r="AO52" s="16" t="s">
+      <c r="AN52" s="14"/>
+      <c r="AP52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP52" s="21"/>
       <c r="AQ52" s="21"/>
       <c r="AR52" s="21"/>
       <c r="AS52" s="21"/>
-      <c r="AT52" s="14"/>
+      <c r="AT52" s="21"/>
       <c r="AU52" s="14"/>
       <c r="AV52" s="14"/>
+      <c r="AW52" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -6032,10 +6090,10 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V1">
       <formula1>"轻液,重液,气体/蒸汽"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AO1 AE1:AE26 AK2:AN52 AI1:AI52 AO2:AO3 AO15:AO52 AD27:AE29 AE30:AE52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AP1 AF1:AF26 AL2:AO52 AJ1:AJ52 AP2:AP3 AP15:AP52 AE27:AF29 AF30:AF52">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ1:AQ52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR52">
       <formula1>"Cap,Blind Flange,Plug,1st Valve Closed,2nd Valve Closed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S52">
